--- a/data_excel/499.xlsx
+++ b/data_excel/499.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>有</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>物品</t>
-  </si>
-  <si>
-    <t>多少</t>
   </si>
   <si>
     <t>equal</t>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有多少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +555,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="E3" sqref="E3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,10 +611,10 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -630,78 +631,78 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -710,24 +711,24 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -736,32 +737,23 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -769,29 +761,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -813,18 +805,18 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -832,10 +824,10 @@
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -843,40 +835,40 @@
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -898,15 +890,15 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/499.xlsx
+++ b/data_excel/499.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>有</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>有多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -241,15 +245,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -555,7 +575,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -720,12 +740,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -733,8 +753,8 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -844,7 +864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -855,12 +875,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
